--- a/hasil uji/nilaiPULSE_RATE.xlsx
+++ b/hasil uji/nilaiPULSE_RATE.xlsx
@@ -466,59 +466,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 1 0 0
- 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1
- 1 1 1 1 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 0 1 0 1
- 0 1 1 1 1 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 1 1 0 0 1 0 0 0 1 0
- 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0
- 1 1 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0
- 0 1 1 1 0 0 0 0 0 0 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 1 0 1
- 1 1 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 0 1 0 1 1 0 1
- 1 0 1 1 0 0 1 1 1 1 0 1 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1
- 1 1 0 1 1 0 1 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 0 0
- 1 1 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0
- 0 1 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 1 1 1 0 1 0 1 1 1 0 0 1 0 1 0 0
- 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0
- 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1
- 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1
- 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0
- 1 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 1 1 0
- 1 0 0 0 0 1 1 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1
- 0 1 1 0 0 0 0 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 1 0 1 1 1
- 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0
- 0 1 0 0 1 0 0 0 0 1 1 0 0]</t>
+          <t>[1 1 0 0 1 1 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 1 0 1 0
+ 0 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0
+ 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0
+ 0 0 1 0 1 1 0 1 1 1 1 0 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ 0 1 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 0
+ 0 1 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 1 1 1
+ 0 1 1 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 1 1 1
+ 1 1 0 1 1 1 0 1 0 0 1 0 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 0 1 1 1 1 0
+ 1 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 1 1 0
+ 1 1 1 1 1 1 0 0 1 0 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0
+ 0 0 1 1 0 0 1 1 0 0 1 1 1 0 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1 1 0 1 1 0 0 1 0
+ 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1 1 1 0 1 0 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 1 0
+ 0 1 1 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 1 0 1 0 1 1 0 1 0 1 1 0
+ 1 1 0 1 0 1 0 0 1 1 1 1 1 1 1 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 0
+ 1 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0
+ 1 1 1 1 0 0 0 1 0 1 0 1 1 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 0 1
+ 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 1 0 1 1
+ 1 0 1 1 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1
+ 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0
+ 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 1 1 0
+ 0 0 0 1 1 1 0 0 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[  0   1   2   6   7   9  11  12  13  14  15  17  18  20  25  26  27  29
-  31  32  33  34  37  39  40  41  42  43  44  47  50  52  54  57  59  61
-  63  71  72  73  74  75  76  77  82  84  87  90  93  97  99 101 104 105
- 106 108 110 112 113 114 115 116 120 122 127 128 133 134 135 136 138 139
- 142 146 152 155 156 158 159 161 163 164 165 166 169 170 171 172 173 174
- 176 177 179 181 182 183 185 186 188 190 193 196 197 199 202 203 204 206
- 208 210 212 214 215 217 218 219 223 224 225 233 234 235 236 237 238 239
- 240 242 243 245 246 251 255 256 258 259 260 262 263 265 266 267 268 272
- 273 277 279 282 283 284 285 286 288 290 292 293 295 296 298 299 302 303
- 304 305 307 308 309 312 314 315 316 319 322 323 325 326 331 332 333 334
- 336 337 339 342 345 347 350 351 352 356 359 360 362 363 364 365 367 370
- 371 372 373 378 380 383 391 396 398 402 408 409 410 411 412 415 417 418
- 424 425 426 428 429 430 432 434 435 436 439 441 444 447 450 451 452 453
- 463 468 469 470 475 477 479 483 484 486 490 492 493 498 499 501 503 504
- 507 510 511 512 515 516 517 519 521 525 526 527 530 533 534 535 536 537
- 538 542 543 545 550 552 554 555 557 558 560 561 566 569 570 573 574 576
- 580 581 583 588 589 590 592 594 595 596 598 599 604 605 606 608 613 614
- 616 619 620 625 626 627 629 634 635 637 638 639 641 642 647 648 649 652
- 653 654 657 660 661 662 665 667 668 673 674 675 676 677 678 680 681 683
- 685 687 690 691 692 693 694 696 697 698 700 701 702 703 704 705 706 707
- 710 713 714 716 718 721 722 723 725 728 729 741 744 749 750]</t>
+          <t>[  0   1   4   5   8  12  13  15  18  19  23  24  25  27  28  30  32  33
+  35  38  40  43  45  46  47  48  49  50  51  52  57  58  59  66  67  70
+  75  77  79  81  82  84  91  93  95  97 100 103 105 108 113 115 116 118
+ 119 120 121 124 126 127 128 132 134 147 149 150 151 153 154 155 156 157
+ 158 160 164 167 168 173 174 177 179 180 183 186 188 191 194 196 197 198
+ 201 203 204 205 207 208 209 217 218 219 220 221 223 224 225 226 229 232
+ 235 238 240 246 247 248 252 254 255 256 257 258 259 260 262 263 264 266
+ 269 271 273 275 277 279 280 281 286 289 291 292 293 294 296 297 298 300
+ 302 303 305 306 307 308 309 310 311 314 316 318 319 321 325 327 329 330
+ 331 333 334 335 336 337 338 341 344 345 346 347 348 351 354 359 360 364
+ 367 368 372 373 376 377 380 381 382 385 386 387 390 391 392 395 396 398
+ 399 401 402 405 410 411 412 413 416 419 420 421 422 423 425 427 429 430
+ 433 434 435 436 437 438 441 442 445 446 450 451 452 453 457 459 460 462
+ 463 466 469 471 473 474 476 478 479 481 482 484 486 489 490 491 492 493
+ 494 495 496 499 504 505 507 508 511 513 514 518 519 520 523 525 526 527
+ 529 533 534 539 541 545 546 547 549 551 553 555 556 557 558 562 564 566
+ 567 569 570 571 573 575 578 579 583 584 585 587 588 591 595 600 603 605
+ 614 615 618 621 622 623 625 627 628 629 631 632 635 636 639 640 641 642
+ 643 648 649 653 655 656 658 659 661 662 663 664 665 667 668 669 670 671
+ 673 674 675 676 677 678 679 680 681 683 685 686 687 690 691 693 694 698
+ 700 705 707 712 717 720 721 722 724 725 728 729 731 733 737 738 743 744
+ 745 749 751 752]</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E2" t="n">
-        <v>18.01252222061157</v>
+        <v>18.24435758590698</v>
       </c>
     </row>
     <row r="3">
@@ -527,65 +528,60 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 0 1 0 0 1 1 0 0 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 1 1 1 1
- 1 1 1 0 1 1 0 1 1 0 0 0 1 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1
- 0 0 0 0 1 1 1 1 1 1 1 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1 1
- 0 1 1 0 1 1 1 1 1 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 1 0 1 0 1
- 0 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 0 0 0
- 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0
- 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1
- 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 1 1 1 0 1 1 0 1 0 0 0 0
- 1 1 1 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 0 0 0 1 0 1
- 1 1 1 1 1 1 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 1 1 1 1 0 0 1 0 0 0 1 1 1 0
- 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1
- 1 1 0 1 0 0 1 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 0
- 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 1 1 1
- 1 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 1 1 1 1 1 0 1
- 1 1 0 1 1 0 0 1 0 1 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 1 1 0 0 1 0 1 0 1 1 0 1
- 1 1 0 1 0 1 0 0 0 1 1 1 1 1 0 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 0 0 0 1 1 0 1
- 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 1
- 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 0 1 1
- 0 0 0 1 0 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 0 1 0 1 0 1 0 0 1 0
- 1 1 1 1 1 0 1 0 1 1 1 1 0 1 0 1 0 0 1 1 1 1 1 1 0 0 1 1 0 0 1 1 1 0 1 1 0
- 1 1 1 1 0 1 0 0 1 1 0 1 0]</t>
+          <t>[1 0 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 0 0 0 0 1 0 1
+ 1 0 0 1 0 1 1 1 0 0 1 0 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0
+ 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1
+ 0 0 1 1 1 0 1 0 0 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0
+ 1 1 0 1 1 0 0 1 0 1 1 1 1 0 0 1 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 1 1 1 0 1 0
+ 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1
+ 1 1 0 0 1 1 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 1
+ 1 1 0 0 1 1 0 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 1
+ 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1
+ 1 0 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 1 1
+ 0 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1 0 0 1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 0
+ 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0
+ 1 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 1 1 1 1 1 1 0 0 0 0 0 1 1
+ 1 1 0 0 1 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0
+ 0 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 1 0 0 0 1 1 1 1 0 1
+ 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 1
+ 0 1 1 0 1 1 1 0 0 1 1 1 1 1 0 1 1 0 0 1 0 1 0 0 0 1 1 1 1 0 1 0 0 1 1 1 1
+ 1 0 1 1 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 1 1 0
+ 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 1 1 0 1 0 1 1 1
+ 0 0 0 1 1 1 0 0 1 1 1 1 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0
+ 1 1 1 1 0 1 0 1 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   4   5   6   7   8   9  11  14  15  18  19  20  21  22
-  23  26  29  31  32  33  34  35  36  37  38  39  41  42  44  45  49  50
-  53  55  56  58  59  60  61  62  63  64  66  68  69  70  71  72  73  78
-  79  80  81  82  83  84  86  90  91  92  94  95  97  98  99 101 102 103
- 104 105 106 107 109 110 112 113 115 116 117 118 119 124 125 126 127 128
- 129 130 135 136 138 139 141 143 145 147 149 150 151 152 154 155 158 159
- 160 161 163 165 166 167 168 169 172 173 174 175 176 178 179 180 181 186
- 188 189 190 191 192 195 196 197 198 199 202 205 207 208 213 214 216 218
- 220 222 223 224 225 227 228 230 232 233 235 236 237 238 241 242 243 245
- 246 247 248 249 250 251 252 255 257 258 259 260 261 263 265 266 268 270
- 271 272 276 277 278 283 284 285 286 288 289 291 296 297 298 300 301 304
- 306 309 310 315 316 317 318 319 320 322 323 325 326 330 332 333 334 335
- 336 337 338 344 345 347 348 351 352 355 356 357 358 359 362 366 367 368
- 371 372 373 374 375 376 377 378 379 380 381 384 385 387 388 389 390 392
- 394 397 399 401 402 405 406 407 408 410 413 415 417 418 419 420 421 422
- 423 424 425 428 431 434 435 436 439 440 441 442 445 451 452 453 455 456
- 458 460 461 462 464 466 467 468 470 472 475 478 479 480 481 483 484 485
- 486 488 489 490 491 493 494 496 497 499 500 501 502 503 504 506 509 510
- 511 512 513 514 515 517 518 519 521 522 525 527 528 529 530 531 533 534
- 537 538 539 540 542 543 544 547 549 551 552 554 555 556 558 560 564 565
- 566 567 568 570 571 572 574 575 577 578 580 581 582 584 588 589 591 594
- 595 597 599 600 601 603 607 608 611 612 613 614 615 618 619 620 621 622
- 623 624 625 626 628 630 631 632 633 634 635 636 637 638 639 640 641 643
- 644 645 646 647 648 649 652 653 654 655 657 658 659 661 662 664 665 669
- 671 672 673 674 675 676 678 679 680 681 684 685 686 687 688 689 691 694
- 696 698 701 703 704 705 706 707 709 711 712 713 714 716 718 721 722 723
- 724 725 726 729 730 733 734 735 737 738 740 741 742 743 745 748 749 751]</t>
+          <t>[  0   3   4   7   8   9  11  12  13  15  17  19  20  21  24  25  26  27
+  28  29  34  36  37  40  42  43  44  47  49  50  52  54  56  58  59  61
+  62  63  67  68  74  76  79  85  88  92  93  94  95  98  99 102 105 106
+ 107 108 109 110 113 114 115 117 121 123 124 125 128 130 131 139 143 144
+ 146 148 149 151 152 155 157 158 159 160 163 166 167 170 171 172 173 174
+ 179 180 181 183 186 190 191 193 197 202 207 208 210 211 212 214 215 216
+ 217 219 221 222 223 226 227 228 229 231 232 233 236 238 240 241 242 247
+ 248 251 252 253 254 256 257 258 259 260 263 264 266 268 269 270 273 275
+ 277 278 279 281 284 287 288 289 292 295 298 301 303 307 309 310 312 315
+ 317 319 320 323 325 330 331 332 333 335 336 338 339 340 343 345 347 348
+ 349 350 351 355 356 361 362 363 364 365 368 369 372 373 376 377 378 380
+ 381 382 384 386 388 391 392 395 397 398 399 400 402 403 404 405 407 408
+ 409 415 416 418 425 426 428 429 431 432 436 437 438 441 444 445 446 448
+ 454 457 458 460 461 462 464 468 469 470 471 472 473 479 480 481 482 485
+ 486 489 491 492 494 495 496 497 498 499 500 501 506 509 512 514 515 521
+ 525 526 527 528 531 532 534 536 537 538 539 540 542 543 545 549 550 551
+ 552 554 557 561 562 563 565 566 570 573 577 578 579 580 582 584 586 590
+ 591 593 594 596 597 598 601 602 603 604 605 607 608 611 613 617 618 619
+ 620 622 625 626 627 628 629 631 632 633 635 638 639 640 647 651 652 653
+ 654 655 658 661 662 663 664 669 673 675 676 677 680 681 682 683 684 687
+ 690 691 693 695 696 698 700 701 702 706 707 708 711 712 713 714 718 719
+ 721 722 724 726 727 728 732 733 737 740 741 742 743 745 747 748]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E3" t="n">
-        <v>25.02636170387268</v>
+        <v>21.39935541152954</v>
       </c>
     </row>
     <row r="4">
@@ -594,64 +590,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 0 0 0 1 1 1 0 0
- 0 0 1 1 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1
- 0 1 1 0 1 0 0 0 1 0 1 1 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 1 0 0 0 1 1 1
- 1 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 0 1 1 1 1 0 0 1 0 1 0 1 0 0 1 1 1 0 1 0
- 0 1 1 1 0 0 1 1 0 1 1 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 1 1 1 1 0 0 0 1 1
- 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 0 1
- 1 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 0 0 1 1 0 0 1 1 0 0 1 1 1 1 1 1 0 1 1
- 0 1 1 0 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 1 1 1 0 0 0
- 0 1 1 1 0 0 1 1 1 1 1 1 0 1 1 0 0 1 0 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0
- 1 1 0 1 0 1 1 0 0 1 1 1 0 1 0 1 1 1 0 0 1 0 1 1 0 1 1 1 0 1 0 0 1 1 1 1 1
- 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 0 1 1 1 0 1
- 1 0 0 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 1
- 1 1 1 0 1 0 0 0 1 1 1 0 1 0 0 1 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 0
- 1 0 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 1 1 1 0 1 0 0 1 1
- 1 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 0 0 0 1 1 1 1 0 1 0 1 1 0 1 0 0 0 0 0
- 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 0 0 1 0 0 0 1 0 1 1 0 1 1 1 1 1 0
- 1 1 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 1 0 1 1 1 0 0 0 0 1 1 0
- 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1 0 0 0
- 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1 0 0
- 1 0 1 1 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 1 1 0 1 0 1 1
- 1 1 1 1 0 0 0 1 1 0 0 1 1]</t>
+          <t>[1 1 1 1 0 1 1 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 1 0 1 1 0 1 1 0
+ 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 1 0 1 1 0 1 0 0 1 1 0 1 1 1 1 0 0
+ 0 0 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 0 0 1 0 1 0 1 1 1 1 1 0 0 0 0 1 0 1 1 1
+ 0 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 0 1 0
+ 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 0 0 0
+ 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 0 1 1 0 0 1
+ 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 1 1
+ 1 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0
+ 1 1 0 1 1 1 1 0 1 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0
+ 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 1 1 0 0 1 0
+ 0 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1
+ 0 0 0 1 0 1 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 0 1 0
+ 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0
+ 1 1 1 1 0 1 1 0 1 0 1 0 0 1 1 1 0 0 0 1 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0
+ 1 1 1 1 0 0 1 1 0 1 1 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0
+ 0 0 0 1 1 0 0 1 0 1 0 1 0 1 1 1 0 1 0 0 0 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1
+ 1 1 1 1 1 1 1 0 0 1 0 1 0 0 0 1 0 1 1 1 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 0 0
+ 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 1 1 1 1
+ 1 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0
+ 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 0 1 0 1 1 0 0 1 0 1 0 0
+ 1 0 1 1 0 0 1 1 1 1 0 0 1]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   4   6   7  10  11  12  13  14  15  16  17  18  20  21
-  22  23  26  27  28  32  33  34  39  40  41  42  44  46  49  51  53  54
-  57  58  59  60  61  63  64  66  67  70  72  73  75  76  78  82  84  85
-  86  87  88  90  92  93  96  98  99 100 102 103 104 108 109 110 111 113
- 114 115 116 117 118 121 123 124 125 126 129 130 131 132 135 137 139 142
- 143 144 146 149 150 151 154 155 157 158 159 164 166 167 168 170 171 173
- 176 177 178 179 183 184 185 188 190 191 195 196 197 198 199 200 201 204
- 205 206 207 208 211 212 213 214 215 216 218 221 222 225 226 230 231 232
- 233 234 236 239 242 243 246 247 250 251 252 253 254 255 257 258 260 261
- 264 265 267 268 269 271 273 274 275 276 277 279 281 282 285 287 288 289
- 290 291 292 297 298 299 302 303 304 305 306 307 309 310 313 315 318 319
- 321 323 324 325 326 327 329 330 331 333 334 336 338 339 342 343 344 346
- 348 349 350 353 355 356 358 359 360 362 365 366 367 368 369 370 371 372
- 373 374 375 377 378 379 381 382 383 384 385 386 388 389 391 392 393 394
- 396 397 398 399 402 403 404 406 407 410 412 413 414 415 417 418 419 421
- 422 423 424 425 428 433 434 438 440 441 443 444 445 446 448 452 453 454
- 456 459 460 461 462 465 466 468 469 472 473 474 475 476 477 478 481 483
- 484 487 488 489 490 491 493 494 495 496 497 498 499 501 502 503 505 506
- 507 509 510 511 513 516 517 518 519 520 522 523 524 526 527 528 529 531
- 533 534 535 539 540 541 542 544 546 547 549 555 558 560 563 564 565 567
- 570 571 572 573 574 577 581 583 584 586 587 588 589 590 592 593 594 595
- 596 597 598 600 611 612 613 615 616 617 619 620 621 626 627 630 631 632
- 633 634 635 636 637 638 639 641 642 643 645 647 649 650 652 653 654 655
- 656 658 659 660 661 662 668 669 672 674 675 677 679 682 684 687 688 689
- 692 693 694 697 698 700 703 705 706 707 712 713 714 716 719 725 726 727
- 728 731 732 733 734 736 738 739 740 741 742 743 747 748 751 752]</t>
+          <t>[  0   1   2   3   5   6   7   8   9  11  16  19  20  26  27  28  29  31
+  32  34  35  41  45  46  48  49  54  55  56  57  59  60  62  65  66  68
+  69  70  71  76  77  78  81  82  83  85  87  88  89  90  93  95  97  98
+  99 100 101 106 108 109 110 113 114 117 119 123 124 126 127 131 134 135
+ 136 139 142 144 146 151 152 153 156 162 165 166 167 168 170 173 175 177
+ 178 181 185 188 191 198 199 201 202 206 208 210 211 212 213 214 217 218
+ 221 223 228 229 230 231 241 242 243 244 245 252 254 255 257 258 259 260
+ 261 262 268 272 273 275 279 281 282 285 287 288 289 290 291 294 296 297
+ 299 300 301 302 304 307 310 312 314 316 317 320 321 322 323 324 325 326
+ 328 331 333 338 339 340 341 343 346 347 348 349 350 355 359 362 363 364
+ 365 368 372 373 375 376 377 378 379 380 381 383 384 385 389 391 397 399
+ 402 403 406 410 412 413 414 415 418 420 422 424 426 427 428 430 431 432
+ 433 434 435 436 437 438 440 442 449 455 456 460 461 462 463 464 465 466
+ 470 472 474 476 481 482 483 484 486 487 489 491 494 495 496 500 501 503
+ 504 506 508 510 513 518 519 520 521 524 525 527 528 531 533 535 536 538
+ 539 541 547 548 552 553 558 559 562 564 566 568 569 570 572 577 578 580
+ 581 582 585 586 587 588 590 591 592 593 594 595 596 597 598 601 603 607
+ 609 610 611 615 616 617 618 622 623 624 625 626 631 633 636 637 638 646
+ 650 651 652 654 658 660 662 663 664 665 666 667 668 670 676 677 679 680
+ 682 685 686 689 690 692 695 699 706 707 708 712 716 717 718 720 722 724
+ 726 729 731 732 735 737 740 742 743 746 747 748 749 752]</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E4" t="n">
-        <v>23.23085713386536</v>
+        <v>22.1418251991272</v>
       </c>
     </row>
     <row r="5">
@@ -660,60 +651,63 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0 1 1 1 1
- 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1
- 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 1 1 0 0 0 1 0 0 1 1 1 1 0
- 1 1 0 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 1 1 0
- 0 1 1 1 0 0 1 0 0 1 1 0 0 1 0 1 1 1 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0
- 0 1 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 1 0 1 1 0 0 1 0 0 0 0 0 1 1 1 0 1 1 1 1
- 0 1 1 1 1 1 0 1 0 0 1 0 1 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 1 0 0 0 1 0 1 1
- 1 1 1 0 0 1 0 1 0 1 1 1 1 0 1 0 0 1 1 0 1 1 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0
- 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1
- 0 1 0 0 0 1 0 1 1 1 0 1 0 0 1 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 1
- 1 0 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 1 1 1
- 1 0 1 1 1 1 1 1 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1 0 0 1 0 0 1 1 1 0 0
- 0 0 1 1 0 0 0 1 1 0 1 1 1 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1
- 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0
- 1 0 1 1 1 1 1 0 1 1 1 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 1 0 1 1 0 1
- 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 1 1 0 1 0 0 1 1 1 1 1 1
- 1 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 0 0
- 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 0 0 0 0 1 1 1 1 1 1 0 1 1 1
- 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 0 0 1 1 1 0 1 0
- 0 1 1 0 0 1 0 1 1 0 0 0 0]</t>
+          <t>[1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 0 0 1 1 0 1 0 1 1
+ 0 1 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 0 0 0 1 0 1
+ 0 1 1 0 1 0 1 0 1 0 1 0 1 1 1 1 0 0 1 0 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0
+ 0 1 1 0 1 0 0 1 0 1 1 0 1 1 1 1 1 0 1 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 1 1 1
+ 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 1
+ 1 0 1 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1
+ 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 0 1 1 0
+ 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 0 0 1 1 0 0 1 0 0 1 1
+ 0 1 0 0 0 1 0 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 1 1
+ 1 0 0 1 0 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 1
+ 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 0 0
+ 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 1 0
+ 0 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 0 1 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1
+ 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 1 0 1 0 1 0 1 1 1 1 0 0 1
+ 1 0 1 0 0 1 0 1 0 0 1 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 1 0 1 0
+ 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0
+ 0 0 1 0 0 0 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 0
+ 1 1 1 1 0 0 1 1 0 1 1 0 1 0 0 1 1 0 0 0 1 1 1 1 0 1 1 0 1 0 0 1 1 1 1 1 0
+ 1 0 0 1 0 0 1 0 1 0 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1
+ 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0 0 1
+ 1 0 1 1 1 0 0 0 1 1 0 0 1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[  0   5  11  12  14  17  19  20  21  23  25  27  29  31  33  34  35  36
-  37  39  40  41  42  48  54  55  57  59  60  61  62  63  66  67  68  69
-  70  73  74  78  83  85  86  87  89  91  92  93  94  95  96  98  99 103
- 106 107 108 109 111 112 115 116 119 121 123 126 129 131 136 140 143 144
- 145 146 149 150 151 154 157 158 161 163 164 165 166 167 168 170 175 177
- 179 181 182 186 188 190 191 192 194 195 197 199 200 201 202 204 205 208
- 214 215 216 218 219 220 221 223 224 225 226 227 229 232 234 236 238 240
- 241 243 244 246 249 251 255 257 258 259 260 261 264 266 268 269 270 271
- 273 276 277 279 280 282 283 286 288 291 293 296 297 299 304 306 308 313
- 314 317 320 323 325 326 329 330 331 332 334 338 340 341 342 344 347 348
- 351 354 355 357 358 359 362 363 364 365 367 369 370 374 377 378 379 382
- 383 387 390 391 393 399 400 401 402 404 405 406 407 409 410 411 412 413
- 414 417 419 424 426 427 428 431 433 444 447 448 451 452 458 459 462 465
- 466 467 468 469 470 473 476 477 478 483 484 488 489 491 492 493 495 496
- 499 500 501 506 507 509 510 513 514 517 521 524 525 526 528 534 536 542
- 545 548 549 551 555 557 558 559 560 561 563 564 565 569 570 571 572 573
- 574 575 578 580 582 584 586 588 589 591 593 595 601 603 606 611 612 613
- 615 617 618 620 623 624 625 626 627 628 629 630 632 633 634 639 640 644
- 646 651 652 654 655 657 659 660 666 668 669 670 671 672 673 674 676 677
- 679 681 683 684 686 687 688 693 694 695 696 697 698 700 701 702 704 705
- 706 707 708 709 710 712 713 715 716 717 720 721 722 723 724 726 727 728
- 729 730 731 734 735 736 738 741 742 745 747 748]</t>
+          <t>[  0   1   2   4   5   7   8  13  14  16  19  21  22  23  25  26  27  30
+  31  33  35  36  38  39  41  42  43  44  45  47  48  50  51  52  53  54
+  55  56  57  58  59  60  63  65  66  67  71  73  75  76  78  80  82  84
+  86  87  88  89  92  94  96  97  99 100 102 103 104 106 107 108 112 113
+ 115 118 120 121 123 124 125 126 127 129 131 134 135 138 139 142 145 146
+ 147 148 149 153 154 155 160 163 167 168 169 171 173 174 175 176 179 180
+ 181 182 184 185 187 188 189 190 193 196 197 200 204 207 209 210 211 213
+ 214 215 216 217 218 219 221 225 229 232 234 236 238 239 240 241 243 244
+ 245 246 249 251 252 253 254 256 257 259 260 263 264 265 267 268 269 270
+ 272 273 275 276 277 279 280 281 283 284 287 288 291 294 295 297 301 303
+ 304 305 307 308 309 310 311 313 314 315 316 317 318 319 320 322 323 325
+ 326 327 330 331 332 333 336 339 340 343 344 346 347 348 349 350 351 352
+ 354 355 359 364 365 367 369 370 371 375 376 380 381 383 385 386 388 389
+ 390 391 392 393 394 395 398 400 401 402 403 407 408 409 411 412 413 414
+ 415 416 417 420 421 422 423 424 425 430 432 435 436 437 439 442 445 446
+ 450 451 452 453 454 457 459 461 462 463 464 467 471 476 478 480 483 485
+ 486 489 490 491 492 493 494 495 496 500 502 503 504 505 507 509 511 512
+ 513 514 517 518 520 523 525 528 529 532 534 535 536 538 539 542 543 545
+ 547 551 553 558 559 560 561 565 566 567 568 569 570 572 574 576 577 581
+ 582 586 587 594 598 600 601 603 604 605 606 608 609 610 611 613 614 616
+ 618 619 621 622 624 625 626 627 629 630 631 632 635 636 638 639 641 644
+ 645 649 650 651 652 654 655 657 660 661 662 663 664 666 669 672 674 677
+ 679 680 681 682 684 686 687 688 689 690 691 692 693 696 697 698 700 702
+ 704 705 706 707 709 710 711 712 713 714 715 716 717 718 722 724 725 726
+ 727 729 730 731 732 734 736 739 740 742 743 744 748 749 752]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E5" t="n">
-        <v>22.54500794410706</v>
+        <v>31.36508941650391</v>
       </c>
     </row>
     <row r="6">
@@ -722,64 +716,60 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 1 0 0 1 1 0 1 0 0 1 1 0 1 1 1 0 1 0 1 1
- 0 1 1 0 1 0 1 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 0 0 0 1 0 1 1 0 1 1 1 1 0 0 0
- 0 0 0 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 0 0 1 1 1 1 1 0 1 0 0 0 1 1 1 1
- 0 1 0 1 0 1 0 1 0 0 1 0 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 0 0 0 1 0 0 1 0 1
- 1 0 1 0 1 1 1 1 1 0 0 1 1 0 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 0 1 1 0
- 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 1 1 0 1 0 1 1 0 0 1
- 1 0 0 1 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 0 1 1 1 1 1 1 0 1 1 0 1 0 0 1 0 1 0
- 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 0 0 0
- 1 0 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 1 1 1 1 1 0 1 1 1 1
- 0 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 1 0 1 0 0 1 0 0 1 0 1 1 0 0 1 0 1 0 1 0 1
- 1 1 0 1 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 1 0 1 1 1 1 1 1 0 1 0 1 0 0
- 0 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 1 0 1 1 0 1 1
- 0 1 1 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 0 1 0 0 0 1 0
- 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 0 1 1 1 0 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 0 1
- 1 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 1
- 1 0 0 0 1 0 0 0 1 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 1 0
- 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0
- 1 0 1 1 1 1 1 1 1 1 1 0 1 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 1
- 0 0 0 1 0 1 1 1 0 0 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0
- 0 1 1 0 0 1 1 1 1 0 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 0 0 1 0 1 1 1 1 1 1 0 1
- 0 0 0 1 0 0 1 0 0 0 1 0 0]</t>
+          <t>[0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 0
+ 1 0 0 1 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0
+ 0 0 1 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 1 1 0 0 0
+ 1 1 0 0 1 1 1 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 1 0 0 1 0 1
+ 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1
+ 1 0 1 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 0 0 0
+ 0 1 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 1 0 1 1 1 0 1 1 0 0
+ 1 1 0 0 0 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 1
+ 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 0 0 0 1 1
+ 0 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0
+ 0 1 0 0 1 1 0 1 0 0 0 1 1 1 1 0 1 1 1 1 0 0 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0
+ 1 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1 1 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1
+ 0 1 0 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 0 1 1
+ 1 1 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0
+ 1 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 1 0 1 0 1
+ 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 0 0 1 1 1 0 1 1 0 0 1 1
+ 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1
+ 1 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0
+ 0 0 1 1 0 1 1 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 1 1 1 0 1 1 1 1 0 1
+ 0 0 0 0 1 0 0 0 1 1 0 1 1 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 1 1
+ 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[  0   2   3   4   5   7   8   9  11  12  13  16  17  20  21  23  26  27
-  29  30  31  33  35  36  38  39  41  43  44  46  47  48  50  52  54  55
-  56  58  62  64  65  67  68  69  70  77  78  79  82  83  84  85  86  87
-  89  91  93  94  97  98  99 100 101 103 107 108 109 110 112 114 116 118
- 121 123 124 125 126 129 131 132 133 135 136 137 138 142 145 147 148 150
- 152 153 154 155 156 159 160 162 163 164 165 166 167 169 170 173 174 175
- 176 179 180 182 183 185 186 193 195 196 199 200 201 202 203 204 205 207
- 210 212 213 215 217 218 221 222 225 226 227 228 229 230 231 232 235 237
- 239 240 242 243 244 245 246 247 249 250 252 255 257 259 261 262 264 265
- 266 267 272 274 275 276 278 279 281 283 284 285 286 287 288 289 290 292
- 296 299 300 301 302 303 304 305 306 308 309 311 312 313 314 315 316 317
- 319 323 324 325 326 327 329 330 331 332 334 336 337 338 341 342 344 345
- 346 348 349 351 354 357 359 360 363 365 367 369 370 371 373 375 376 377
- 378 380 381 383 385 387 390 393 395 396 397 398 399 400 402 404 408 410
- 411 413 414 415 417 418 419 421 422 423 424 425 426 427 428 431 432 433
- 435 436 437 439 440 442 443 445 446 449 450 452 453 454 455 458 459 460
- 461 462 463 464 466 467 468 470 472 475 479 484 485 486 487 492 493 494
- 495 497 498 499 503 505 508 509 511 512 517 518 519 524 525 526 527 528
- 529 531 534 536 537 538 541 542 544 545 548 549 550 551 552 554 555 559
- 563 565 567 568 569 570 571 574 575 576 577 578 579 580 581 584 585 586
- 588 589 590 592 593 594 595 597 599 601 602 603 605 606 608 609 611 613
- 614 615 616 617 618 622 623 624 625 626 629 631 632 633 634 635 636 637
- 638 639 641 642 645 647 648 649 653 654 657 658 661 664 665 669 671 672
- 673 676 678 680 681 682 683 684 685 686 688 689 691 693 695 697 699 700
- 704 705 708 709 710 711 714 715 718 719 720 722 723 724 726 730 732 733
- 734 735 736 737 739 743 746 750]</t>
+          <t>[  1   2   3   4   5   7  10  12  13  14  15  16  17  20  21  22  23  27
+  31  32  33  37  40  42  43  45  46  47  48  53  54  56  57  59  62  65
+  76  77  78  79  81  82  84  85  87  88  93  94  95  97  99 102 104 105
+ 106 107 111 112 115 116 117 118 119 123 126 129 130 133 134 136 137 139
+ 141 142 145 147 150 151 152 157 163 164 166 167 170 173 174 176 180 181
+ 182 183 184 185 187 189 190 194 195 198 203 204 205 206 207 208 209 211
+ 212 213 216 217 218 223 225 227 228 230 231 236 241 243 246 247 248 249
+ 251 252 253 255 256 259 260 265 266 267 268 269 271 274 276 277 278 282
+ 283 292 293 294 295 298 300 303 307 310 311 312 316 317 318 320 322 325
+ 327 331 332 334 335 336 337 338 340 341 343 345 346 347 349 351 352 353
+ 357 358 359 361 362 371 374 375 377 381 382 383 384 386 387 388 389 392
+ 398 399 400 402 404 407 409 412 413 415 419 420 423 424 425 426 427 428
+ 431 432 433 439 440 443 445 447 448 449 450 453 454 455 458 460 461 462
+ 463 464 467 468 469 470 472 473 475 476 477 479 480 481 482 486 487 488
+ 489 494 495 496 497 498 500 501 503 504 507 508 511 518 519 520 523 527
+ 531 532 533 534 535 536 537 540 544 547 548 549 550 552 554 556 560 565
+ 566 567 568 569 570 571 572 575 576 577 578 582 583 584 586 587 590 591
+ 594 595 598 601 607 610 611 614 619 623 627 628 629 631 633 635 642 645
+ 647 648 651 658 659 662 663 668 669 671 672 673 675 678 679 681 686 688
+ 689 691 693 694 695 697 698 699 700 702 707 711 712 714 715 717 718 719
+ 720 721 723 726 728 731 732 733 735 738 739 740 742 743 744 745 746 748
+ 751]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E6" t="n">
-        <v>24.32217812538147</v>
+        <v>30.13751125335693</v>
       </c>
     </row>
     <row r="7">
@@ -788,64 +778,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 0
- 1 0 0 0 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 0 0 1 1 1 1 0 0 0 1 1 0 1 1 0 1 0 0
- 1 1 1 1 1 1 1 1 0 1 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 1 1
- 1 1 1 1 1 1 0 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1 1 0 0 1
- 1 1 0 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1
- 1 1 1 0 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 0 1 0 1 1 1 0
- 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 1 0 0
- 0 1 1 0 1 0 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 1 1
- 1 1 1 0 1 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1
- 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 1 1
- 1 0 1 0 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 1 1 1 0
- 1 0 1 1 1 1 1 0 0 1 1 0 1 1 0 1 0 0 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 1 1
- 1 1 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 0 0 1 1 1 0 1 0 0 1
- 1 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0
- 1 1 0 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 0 1 0 1 0 1 1 0 1 0 1
- 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 0 1 1 1 1 1 0 1 0 1
- 1 0 1 0 0 0 1 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0
- 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1
- 0 1 0 0 1 1 1 1 1 0 0 1 1 1 0 1 1 1 1 0 1 0 1 1 1 0 1 1 1 0 1 0 0 1 1 1 1
- 0 1 1 1 1 0 0 1 0 0 0 1 1 1 1 0 1 1 0 1 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 1 0
- 1 1 1 0 1 1 0 1 0 1 1 1 0]</t>
+          <t>[0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0
+ 0 0 0 1 1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0
+ 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 1
+ 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1 0 0 1
+ 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 1 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0
+ 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0
+ 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 1 1
+ 1 1 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 1 1 1
+ 1 1 1 0 0 1 1 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 1 1 1 1 1 0
+ 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 1 0 1 1 1
+ 1 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 0 0 0 1 0 1 0
+ 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0
+ 0 1 1 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 1 1 0 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0
+ 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 0 0 1
+ 1 1 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 1 0 1 1 1 0 1 1 1 1
+ 1 0 1 0 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1
+ 0 1 0 1 0 1 0 1 1 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0 0
+ 1 0 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 1 1 1
+ 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0
+ 1 1 1 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 1 1
+ 1 0 1 0 1 1 1 1 0 0 1 0 0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[  0   1   4   6   9  10  11  12  13  16  17  18  19  20  21  22  23  24
-  25  26  27  28  30  32  33  35  37  41  42  44  46  48  49  50  52  53
-  55  58  59  60  61  65  66  68  69  71  74  75  76  77  78  79  80  81
-  83  84  87  91  92  93  96 100 102 105 106 108 109 110 111 112 113 114
- 115 116 119 120 121 123 124 125 127 128 129 130 131 132 134 136 139 140
- 142 143 144 147 148 149 151 152 154 155 158 159 160 162 163 164 165 166
- 167 168 169 172 173 174 175 176 177 179 183 184 185 186 187 190 191 194
- 195 196 197 198 199 200 202 203 204 207 208 210 211 212 214 216 218 219
- 220 222 225 226 231 234 237 242 243 244 247 249 250 251 252 253 255 256
- 260 261 263 266 267 268 269 273 274 275 278 280 281 283 285 287 290 291
- 294 295 296 297 298 300 301 304 306 307 311 312 318 319 320 322 323 325
- 326 327 328 329 331 332 335 337 342 344 348 349 350 351 352 353 354 355
- 356 357 358 361 365 366 367 368 369 370 372 374 376 379 381 382 383 384
- 385 386 387 388 389 390 393 395 397 399 400 402 403 404 405 407 409 410
- 411 412 413 416 417 419 420 422 426 427 428 429 430 431 434 435 436 437
- 440 442 443 444 445 446 447 451 453 456 457 461 462 463 465 466 468 470
- 473 474 475 477 480 481 482 485 487 488 490 491 493 494 495 496 499 500
- 501 502 505 509 510 511 512 513 514 515 516 518 519 521 522 523 524 525
- 526 530 532 533 534 536 537 538 539 540 542 545 547 549 550 552 554 556
- 557 558 560 561 562 565 566 567 568 569 570 571 574 575 576 579 580 581
- 583 584 585 586 587 589 591 592 594 598 599 601 602 603 605 606 607 609
- 610 611 612 613 614 616 618 620 622 623 627 629 630 632 638 645 646 648
- 649 650 651 654 655 656 657 659 660 664 665 667 670 671 672 673 674 677
- 678 679 681 682 683 684 686 688 689 690 692 693 694 696 699 700 701 702
- 704 705 706 707 710 714 715 716 717 719 720 722 723 725 726 728 730 731
- 732 733 734 735 737 738 740 741 742 744 745 747 749 750 751]</t>
+          <t>[  4  11  12  14  15  18  19  20  25  27  29  33  40  41  43  47  48  49
+  50  51  52  53  58  59  61  63  67  68  76  82  86  87  90  93  94  95
+  96  98 102 103 104 107 110 111 112 115 120 123 126 127 128 129 132 138
+ 140 141 142 144 147 151 154 158 159 160 164 165 166 167 169 171 172 173
+ 175 179 183 185 186 187 188 190 194 196 197 203 204 208 209 210 212 213
+ 215 219 220 225 229 231 234 239 242 243 244 246 248 249 250 253 254 256
+ 257 258 259 260 261 263 264 265 269 272 275 277 281 282 284 289 291 292
+ 293 294 295 296 297 298 301 302 303 304 306 308 314 315 318 319 321 322
+ 323 327 328 329 330 331 333 339 341 342 343 344 349 353 354 356 360 361
+ 365 367 368 369 370 373 374 377 378 381 382 384 387 390 391 392 393 394
+ 396 397 398 399 403 405 407 410 411 413 415 417 418 419 421 425 426 428
+ 429 432 435 439 440 442 445 446 448 449 450 452 453 458 459 460 462 463
+ 465 468 472 473 474 475 476 477 478 479 482 484 489 491 492 495 497 498
+ 500 501 503 504 506 507 508 511 513 514 517 518 519 521 522 523 525 526
+ 528 529 533 534 535 537 540 541 544 545 547 548 549 551 552 553 554 555
+ 557 560 563 566 567 568 569 570 572 573 575 576 577 578 579 580 581 583
+ 585 586 587 588 589 590 591 593 595 597 599 600 601 603 604 609 610 612
+ 615 616 618 620 621 622 624 629 632 635 637 641 642 643 650 652 658 659
+ 660 661 663 664 665 671 673 674 676 677 678 680 681 683 684 685 687 688
+ 689 690 692 693 694 695 696 698 699 703 704 705 707 714 715 716 717 719
+ 720 721 725 726 730 732 733 735 736 738 739 740 742 744 745 746 747 750]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E7" t="n">
-        <v>28.17156910896301</v>
+        <v>32.07230114936829</v>
       </c>
     </row>
     <row r="8">
@@ -854,64 +839,60 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 0 1 0 0
- 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 1 1 0 0 1 0 1 0 1 0 1 1 0 1 1 1
- 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 0 1 0 0 1
- 1 0 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 0 1 0 0 0 0 1 1 1 1 1 0 0 1 0 1 1 0 0 1
- 1 1 1 1 0 1 0 1 1 1 0 1 1 0 1 1 0 1 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 1
- 1 1 0 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1
- 0 1 1 1 1 1 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1
- 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1 0 1 1 1 0 0 0 0 1 1
- 0 0 1 1 1 0 1 1 1 0 0 1 1 1 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 1 1 1 1 1 1
- 1 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 1 1 1 0 1 1 1 0 1 1 0 1
- 1 1 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 0
- 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0
- 1 1 0 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 1 1 1 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0
- 1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1
- 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 0 1 1
- 0 0 1 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 1 1 1 0 1 1 0 0 1 0 0 1 0 1 1 1 0
- 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 0 0 1 1 1 0 1 0 1 1 1 0 1
- 0 0 1 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 1 1 1
- 1 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 1 0 1 1 0
- 1 1 0 0 1 0 0 1 1 1 1 0 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 1 1 1
- 0 1 0 1 1 1 0 0 0 0 1 1 0]</t>
+          <t>[1 0 1 1 1 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 1 1 1 1 0
+ 1 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 1 1 0 0 1 1 1 0 1
+ 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 1 1 0 0 0 1 0 0 1 1 1 1 1 1 1 1 1
+ 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0
+ 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 0 1 0
+ 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 1 1 0 1 1
+ 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 1 0 1 1 1 0 0 0
+ 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 0 1 0 1 1 1 1 1
+ 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 0 0 1 1 0 1 1 1 0 0 1 1 0 0 0
+ 0 1 1 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1
+ 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0
+ 0 1 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 1 0 1 1 1 1 1 0 1 1 1 0 0 0 0 1 1 1 1
+ 0 0 1 0 0 1 0 1 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0
+ 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 0 1 1
+ 0 1 1 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 1 1 0 1 0 0 1 0 1 1 1 1 0 1
+ 0 1 0 0 1 1 0 0 1 0 1 1 0 0 1 1 1 0 0 1 1 0 1 1 0 0 1 1 0 1 1 1 0 0 0 1 1
+ 1 0 1 1 1 1 0 1 0 0 1 1 0 1 1 0 1 0 0 1 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1
+ 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 1 1 0 0 0 0 1 0 0 1
+ 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 1 1 1 0 1 1 1 0 1 0 0
+ 0 1 0 0 1 1 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 1
+ 0 0 0 0 1 0 1 0 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[  0   2   3   4   5   6   7   8   9  10  13  15  17  18  19  23  24  25
-  26  27  29  32  34  37  38  39  42  43  44  45  46  47  48  50  51  52
-  54  55  56  58  59  62  64  66  68  69  71  72  73  77  78  79  80  81
-  82  84  85  87  88  89  91  92  93  94  95  96  98 100 103 104 107 110
- 111 114 115 117 119 121 122 124 125 126 127 129 134 135 136 137 138 141
- 143 144 147 148 149 150 151 153 155 156 157 159 160 162 163 165 166 169
- 170 173 174 175 176 178 179 180 182 183 184 185 186 188 189 191 192 194
- 195 197 198 204 208 210 211 212 214 216 217 218 219 220 221 223 224 225
- 226 227 229 232 233 234 237 238 239 242 243 245 246 248 249 250 251 252
- 254 255 256 257 258 259 261 262 264 265 266 268 269 270 272 273 274 277
- 278 279 282 283 285 287 288 289 294 295 298 299 300 302 303 304 307 308
- 309 310 316 317 319 320 322 323 327 328 329 330 331 332 333 335 336 338
- 339 340 342 348 352 355 356 357 358 359 360 362 363 364 366 367 369 370
- 371 372 373 374 380 381 389 390 392 394 395 398 402 403 405 408 410 411
- 412 414 416 417 418 419 420 421 422 423 424 425 426 427 429 430 431 432
- 433 435 437 439 440 441 442 444 445 447 450 451 452 453 456 458 462 463
- 464 465 467 468 470 471 473 477 479 481 482 483 484 485 486 489 490 491
- 493 494 496 497 498 499 500 501 502 505 506 507 508 511 512 513 514 517
- 518 519 520 521 522 523 525 526 527 531 532 533 536 537 538 541 542 543
- 544 545 546 547 548 549 553 554 557 558 561 562 564 565 566 567 571 572
- 573 575 576 577 579 580 583 586 588 589 590 592 597 599 601 603 605 606
- 607 608 612 613 615 618 619 620 622 624 625 626 628 631 632 633 634 635
- 639 642 644 645 647 651 652 653 654 659 660 661 662 663 664 665 666 667
- 668 671 674 677 683 684 685 687 689 690 693 695 696 697 698 700 701 703
- 704 707 710 711 712 713 716 717 719 720 721 722 723 724 726 727 728 729
- 730 733 734 735 737 738 739 741 743 744 745 750 751]</t>
+          <t>[  0   2   3   4   6   8  11  12  13  15  20  21  23  28  29  32  33  34
+  35  37  38  39  42  44  48  50  53  56  57  59  62  64  65  66  69  70
+  71  73  77  80  84  86  88  89  90  91  94  95  99 102 103 104 105 106
+ 107 108 109 110 111 112 114 115 117 118 119 121 126 127 128 129 132 133
+ 134 135 138 139 144 150 153 154 155 158 161 164 165 171 174 175 176 177
+ 178 179 181 183 187 189 191 196 198 201 204 205 206 208 209 211 213 214
+ 215 217 218 220 221 222 223 228 229 231 232 234 235 236 237 238 239 243
+ 246 248 249 251 253 254 255 267 273 274 276 277 278 279 280 283 284 289
+ 291 292 293 294 295 296 297 298 302 303 307 309 310 312 313 314 316 320
+ 321 323 324 325 328 329 334 335 337 338 340 342 343 344 345 346 348 349
+ 355 357 362 365 366 369 372 375 379 381 383 385 386 387 388 389 390 393
+ 394 395 397 399 408 409 410 412 415 416 418 420 423 424 425 427 428 429
+ 430 431 433 434 435 440 441 442 443 446 449 451 453 454 455 458 459 461
+ 465 466 467 469 471 473 475 477 478 484 489 490 491 493 495 497 500 501
+ 504 505 506 507 508 511 512 513 514 516 517 519 520 523 525 526 527 528
+ 529 532 533 534 535 536 541 542 544 547 549 550 551 552 554 556 559 560
+ 563 565 566 569 570 571 574 575 577 578 581 582 584 585 586 590 591 592
+ 594 595 596 597 599 602 603 605 606 608 611 612 615 616 617 620 622 623
+ 624 625 626 628 629 634 635 645 648 649 652 653 654 655 656 657 662 665
+ 668 669 670 674 677 680 681 684 686 690 692 693 694 696 697 698 700 704
+ 707 708 710 712 713 717 719 723 727 731 733 734 736 739 744 746 748 751
+ 752]</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E8" t="n">
-        <v>33.50502181053162</v>
+        <v>31.71944332122803</v>
       </c>
     </row>
     <row r="9">
@@ -920,58 +901,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 1
- 0 0 0 1 0 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0
- 0 1 0 0 1 1 1 1 1 0 1 0 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0
- 1 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0
- 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0
- 1 1 1 1 0 0 0 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1
- 1 1 1 0 0 1 0 1 1 1 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0
- 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 1 0 0 1 1 0 1 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1
- 1 1 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 1 1 0 1 0 1 1 0 1
- 1 1 1 0 1 1 0 1 0 0 1 1 1 0 1 0 1 0 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 0 0 0 0
- 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 1
- 1 0 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0
- 1 1 0 1 1 0 0 1 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0
- 1 1 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 0 0 1 1 0 1
- 0 1 0 1 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1
- 0 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0
- 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0
- 0 0 0 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 1 1 0 1 1 1 0 1
- 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 0 0 0 0 0 1 0
- 1 0 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0
- 0 0 1 1 0 0 1 0 1 1 1 0 0]</t>
+          <t>[1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0
+ 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1
+ 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 1 1 1 0 0
+ 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1
+ 0 1 1 0 1 0 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 1 1 0 0 1 0
+ 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 1 1 0 1 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 0 1
+ 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 1 1
+ 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 1 1
+ 1 1 0 1 1 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 1
+ 0 0 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 0 0 1 0 0 0 1 1 0 1 1 1 1 1 0 1 0
+ 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 1 1 1 1 0 1 0 0 1 1
+ 1 1 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 1 1 0 1 1 0 1 1 1 0 1 0 1 1 1 0 0 0
+ 0 1 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0
+ 1 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0
+ 0 0 1 1 1 0 1 1 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 0 0 0 1 0 1 0 0
+ 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 1
+ 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 0
+ 1 0 0 1 0 1 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 0 1 0 1 1
+ 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 1 0
+ 0 0 1 1 1 0 0 1 0 1 1 0 0 1 0 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0
+ 0 1 0 1 1 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[  0   2   3   4   5   6  11  12  18  19  23  24  27  28  33  35  36  40
-  42  43  45  46  48  49  50  52  57  58  60  61  62  66  69  72  75  78
-  79  80  81  82  84  87  90  91  93  94  95  96  97 103 107 108 111 112
- 114 115 120 121 123 126 127 130 131 133 136 137 139 146 154 158 159 168
- 170 173 174 181 182 185 186 187 188 192 193 195 196 199 200 201 203 204
- 205 206 207 208 211 214 218 219 221 222 223 224 227 229 230 231 232 234
- 235 236 238 246 250 256 262 263 265 267 268 271 274 277 278 280 282 283
- 286 289 292 294 295 296 297 300 305 306 308 309 310 311 312 313 315 317
- 319 321 323 324 325 327 329 330 332 333 334 335 337 338 340 343 344 345
- 347 349 351 352 354 355 358 359 360 361 364 365 370 373 374 381 383 387
- 388 389 390 396 397 400 401 402 403 406 407 409 410 412 413 414 415 416
- 417 420 421 423 425 426 428 431 432 433 436 439 441 444 445 447 448 451
- 452 454 459 460 461 463 465 466 467 470 471 478 479 481 482 486 487 490
- 491 494 495 500 501 502 504 507 508 511 514 515 517 519 521 522 525 527
- 529 531 532 534 537 540 543 544 545 546 548 549 553 554 556 558 559 561
- 562 563 565 566 567 568 569 576 577 579 585 587 588 592 593 594 595 598
- 603 605 608 613 616 618 623 624 626 627 633 634 635 638 639 640 641 642
- 648 651 652 656 657 658 659 661 662 663 665 673 675 677 680 682 684 685
- 687 688 689 690 691 693 694 695 701 703 705 706 710 711 714 715 717 718
- 720 722 725 729 730 731 734 736 738 742 743 746 748 749 750]</t>
+          <t>[  0   3   7  10  17  18  19  23  27  28  30  41  43  45  46  48  51  53
+  54  59  60  64  65  67  69  71  73  79  81  82  83  84  86  88  89  92
+  93  95  97 102 103 105 106 107 108 113 115 118 123 124 128 129 131 137
+ 140 142 143 144 147 149 150 152 154 156 159 160 162 164 167 168 171 173
+ 176 177 179 180 183 185 186 187 189 191 192 194 196 197 199 200 201 202
+ 204 208 209 210 212 214 215 216 221 224 236 237 238 239 240 242 243 248
+ 249 250 251 252 254 255 256 257 258 259 260 261 263 272 273 274 275 277
+ 278 279 282 283 284 285 286 287 288 289 293 294 295 296 297 299 300 303
+ 304 306 309 311 312 316 318 321 322 324 327 329 332 336 337 338 339 340
+ 341 343 344 345 347 348 349 350 352 355 359 360 362 363 364 365 366 368
+ 373 374 375 377 380 381 385 387 388 393 395 396 397 398 399 400 402 405
+ 406 407 408 411 412 418 420 421 423 426 427 429 430 432 433 434 436 438
+ 439 440 445 446 447 452 453 454 455 456 459 461 463 464 471 472 473 476
+ 478 479 481 482 485 487 490 492 494 501 503 505 507 509 514 520 521 522
+ 524 525 526 527 533 535 537 538 539 542 543 544 545 546 550 552 555 564
+ 565 569 571 575 577 583 584 586 588 589 591 594 600 601 602 605 608 610
+ 611 614 617 618 619 620 621 622 624 629 632 634 635 636 638 639 640 642
+ 644 648 649 650 651 655 658 659 660 662 664 665 667 668 670 671 672 673
+ 675 676 677 679 686 688 690 692 695 696 701 705 706 707 710 712 713 716
+ 719 721 722 723 725 726 732 733 734 738 741 743 744 746 747 748 749 751
+ 752]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E9" t="n">
-        <v>27.11688470840454</v>
+        <v>32.61926245689392</v>
       </c>
     </row>
     <row r="10">
@@ -980,58 +962,60 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 0
- 0 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 1 0 1 0
- 0 0 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 1 1 1 1 1 1 0 0 0 1
- 1 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0
- 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 1 1 1 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 1 0
- 1 1 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1
- 0 1 1 1 1 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 0 1 1 1 0
- 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 0 1 0 0 1 1 0 1 1 0 1 0 1 1 0 0 1 1 0 0 0
- 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 0 0 0 1 0 1 1 0 0
- 0 1 0 1 1 1 0 1 0 1 0 1 0 0 1 1 1 0 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 1 0 1 0
- 1 0 0 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0
- 1 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1
- 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0
- 0 1 0 0 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0
- 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 1 1 0 1 0 0 1 1 1
- 0 1 0 1 0 1 1 1 1 0 1 0 0 1 0 1 1 1 0 1 0 0 1 0 1 1 1 1 0 0 0 0 1 1 1 0 0
- 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0
- 1 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 1 1 1 0 0 0 0 1 1 1
- 0 0 0 1 1 1 1 1 0 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 1 0 0
- 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 1 0
- 1 0 0 0 0 1 0 0 0 1 0 0 0]</t>
+          <t>[1 1 1 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 1 1 0 1 0 0 1 1 1 1 1 1 1 0 0 1 0 1
+ 0 1 1 1 0 1 0 0 1 0 0 1 0 0 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0
+ 1 1 0 1 0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0
+ 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1 0 0 1 1 1 1 1 0 1
+ 1 1 1 1 0 0 1 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 1 0 1 1 1 0
+ 1 1 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0
+ 0 0 1 1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 0 1 1 0 1 1 1 0 0 1
+ 1 0 1 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0
+ 0 1 1 0 1 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1
+ 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1
+ 0 1 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 1
+ 1 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0
+ 0 0 0 0 1 0 1 1 1 0 1 0 0 1 1 0 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1 1 0 0 1 0 0
+ 1 1 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1
+ 0 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0
+ 0 1 1 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0
+ 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 0 1 0 1 1
+ 0 1 1 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 0 1 0
+ 1 0 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0
+ 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 1 0 0 1 0 1
+ 1 0 1 1 1 0 0 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[  0   3   7  11  12  19  20  21  25  26  27  29  31  34  38  40  44  46
-  48  49  51  54  55  56  59  61  62  67  68  69  70  72  76  79  80  81
-  82  83  84  88  89  92  93  95  96  97 101 102 103 104 105 106 110 111
- 112 114 117 118 120 124 129 130 135 136 139 140 141 142 144 145 149 151
- 153 156 157 160 163 165 166 167 168 171 173 175 176 177 179 181 183 185
- 186 188 189 192 193 194 201 205 206 209 211 214 215 216 217 218 220 221
- 223 224 225 226 227 228 232 233 234 236 240 245 246 247 249 251 252 253
- 255 256 257 266 267 269 272 273 274 276 279 280 282 283 285 287 288 291
- 292 296 297 300 304 305 307 308 309 310 311 312 315 317 318 319 320 321
- 327 329 330 334 336 337 338 340 342 344 347 348 349 351 352 353 354 355
- 357 360 361 362 363 364 366 368 370 373 377 378 379 380 381 384 385 386
- 388 389 391 394 397 404 405 407 412 413 415 416 418 419 421 422 423 425
- 431 434 435 443 445 448 449 450 454 458 460 462 465 467 469 470 472 478
- 482 486 487 488 489 490 494 495 500 501 502 503 505 510 511 513 519 522
- 527 528 530 535 539 540 541 542 544 546 547 549 552 553 554 556 558 560
- 561 562 563 565 568 570 571 572 574 577 579 580 581 582 587 588 589 592
- 599 605 608 609 610 614 615 616 617 619 622 623 624 627 629 630 632 634
- 635 638 639 641 642 643 644 645 646 647 648 650 651 653 656 657 658 663
- 664 665 669 670 671 672 673 676 677 678 679 683 685 691 692 693 694 695
- 697 700 703 704 711 715 718 719 725 729 732 733 735 737 738 740 745 749]</t>
+          <t>[  0   1   2   6  11  13  14  15  16  18  19  20  22  25  26  27  28  29
+  30  31  34  36  38  39  40  42  45  48  51  52  53  54  56  57  59  60
+  61  64  68  71  74  75  77  79  80  81  82  83  84  86  87  88  89  91
+  92  93  94  95  97  98  99 100 102 103 104 105 107 109 111 116 118 119
+ 120 123 127 128 130 132 133 135 138 141 142 143 144 145 147 148 149 150
+ 151 154 156 157 159 161 163 164 168 170 173 174 176 179 181 182 183 185
+ 186 187 188 190 192 195 199 202 204 205 206 207 213 214 218 219 224 225
+ 227 228 229 230 232 234 236 238 239 241 242 245 248 250 251 253 254 255
+ 258 259 261 264 266 267 268 270 272 273 275 276 278 279 282 284 285 288
+ 290 294 297 298 300 301 302 303 307 309 311 312 315 316 318 319 321 323
+ 326 332 333 335 336 339 341 343 344 345 346 349 350 353 355 358 359 360
+ 361 363 364 368 369 371 375 376 377 378 380 382 384 389 390 393 394 396
+ 398 399 401 404 405 406 407 408 410 413 419 420 421 423 427 428 429 430
+ 433 434 435 440 441 442 448 450 451 452 454 457 458 462 464 465 467 469
+ 470 471 474 475 478 481 482 486 487 492 493 495 498 499 501 503 504 510
+ 511 514 517 519 521 525 528 529 531 532 534 536 537 542 544 548 550 556
+ 557 564 566 568 569 570 574 575 577 579 581 583 585 586 590 592 595 596
+ 597 598 601 606 608 609 610 613 615 616 617 618 619 621 623 625 627 628
+ 630 631 632 633 636 638 642 645 647 651 654 655 657 659 661 662 664 666
+ 668 669 673 674 675 676 677 679 680 682 684 685 686 690 695 696 704 706
+ 708 713 716 717 718 720 721 724 725 727 729 731 732 733 734 737 739 740
+ 742 743 744 748 749 750 751 752]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E10" t="n">
-        <v>29.11272549629211</v>
+        <v>43.71291947364807</v>
       </c>
     </row>
   </sheetData>
